--- a/biology/Botanique/Boletus_violaceofuscus/Boletus_violaceofuscus.xlsx
+++ b/biology/Botanique/Boletus_violaceofuscus/Boletus_violaceofuscus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Boletus violaceofuscus, de son nom scientifique japonais[1] Murasaki-yamadori-také (ムラサキヤマドリタケ), traduit en français Cèpe violet ou cèpe brun violacé, est un champignon basidiomycète du genre Boletus, de la famille des Boletaceae. Excellent comestible, très proche du cèpe de Bordeaux (Boletus edulis), qu'il semble remplacer dans certaines régions de Chine, de Taïwan et du Japon.  L'analyse phylogénétique tend à démontrer qu'il s'agit d'une espèce différente, et pas d'une variété.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boletus violaceofuscus, de son nom scientifique japonais Murasaki-yamadori-také (ムラサキヤマドリタケ), traduit en français Cèpe violet ou cèpe brun violacé, est un champignon basidiomycète du genre Boletus, de la famille des Boletaceae. Excellent comestible, très proche du cèpe de Bordeaux (Boletus edulis), qu'il semble remplacer dans certaines régions de Chine, de Taïwan et du Japon.  L'analyse phylogénétique tend à démontrer qu'il s'agit d'une espèce différente, et pas d'une variété.
 </t>
         </is>
       </c>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Binôme actuel
-Boletus violaceofuscus  W.F. Chiu 1948 [2]
+          <t>Binôme actuel</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boletus violaceofuscus  W.F. Chiu 1948 
 </t>
         </is>
       </c>
@@ -543,14 +560,16 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chapeau de 4-9 cm large, convexe, brun violacé puis bleu violet à violet foncé, surface lisse, finement veloutée, viscidule[3],[4].
-Hyménium constitué de tubes sinués, libres, déprimés autour stipe, d'abord blanc, jaunissants avec l'âge[3]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chapeau de 4-9 cm large, convexe, brun violacé puis bleu violet à violet foncé, surface lisse, finement veloutée, viscidule,.
+Hyménium constitué de tubes sinués, libres, déprimés autour stipe, d'abord blanc, jaunissants avec l'âge. 
 Sporée brun olivacé.
-Stipe 6-8 cm x 1-1.5 cm, cylindrique, atténué vers l'apex, concolore au chapeau (brun, mauve, noir) ou plus pâle, fortement réticulé de veines blanchâtres[3],[4].
+Stipe 6-8 cm x 1-1.5 cm, cylindrique, atténué vers l'apex, concolore au chapeau (brun, mauve, noir) ou plus pâle, fortement réticulé de veines blanchâtres,.
 Chair couleur blanchâtre, immuable au froissement.
-Spores 19-21 x 6,5-9 µm, subfusiformes[3].
+Spores 19-21 x 6,5-9 µm, subfusiformes.
 </t>
         </is>
       </c>
@@ -579,10 +598,12 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fructifie de juillet à septembre. Mycorhize avec les chênes (divers Quercus) en Chine (Kwangtung, Kwangsi, Guizhou), Japon (partout)[3],[4], Taïwan (alt: 1800 m[5])
-Trouvé sur le marché de Kunming (1.890 m) en 1948[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fructifie de juillet à septembre. Mycorhize avec les chênes (divers Quercus) en Chine (Kwangtung, Kwangsi, Guizhou), Japon (partout) Taïwan (alt: 1800 m)
+Trouvé sur le marché de Kunming (1.890 m) en 1948.
 </t>
         </is>
       </c>
@@ -611,9 +632,11 @@
           <t>Comestibilité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bon comestible, saveur de noisette, plus ferme et moins envahi de larves que le cèpe[7]. Parfois vendu hors de Chine comme Boletus edulis séché.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bon comestible, saveur de noisette, plus ferme et moins envahi de larves que le cèpe. Parfois vendu hors de Chine comme Boletus edulis séché.
 </t>
         </is>
       </c>
